--- a/Pristiamantis_acatallelus.xlsx
+++ b/Pristiamantis_acatallelus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnsov/Desktop/Proyectos de Investigación 2025/Ocupacion_Farallones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB66148-7AD5-704B-BA42-CBB4D6CABF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AD3D0E-744E-4642-9017-BC3F24B2430A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16900" yWindow="660" windowWidth="16560" windowHeight="18800" firstSheet="2" activeTab="9" xr2:uid="{0E724713-D368-CE48-B177-BB2AF005B536}"/>
+    <workbookView xWindow="16860" yWindow="660" windowWidth="16580" windowHeight="18800" firstSheet="3" activeTab="10" xr2:uid="{0E724713-D368-CE48-B177-BB2AF005B536}"/>
   </bookViews>
   <sheets>
     <sheet name="Notacion" sheetId="10" r:id="rId1"/>
@@ -23,9 +23,9 @@
     <sheet name="2023" sheetId="7" r:id="rId8"/>
     <sheet name="2024" sheetId="8" r:id="rId9"/>
     <sheet name="2025" sheetId="9" r:id="rId10"/>
+    <sheet name="all" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="40">
   <si>
     <t>T1</t>
   </si>
@@ -172,7 +172,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -188,8 +188,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,8 +223,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0E6F5"/>
+        <bgColor rgb="FFC0E6F5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -226,11 +247,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF44B3E1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -248,6 +278,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -628,7 +673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE40CB4F-0A49-2044-B426-5EBFB6D905A1}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -832,6 +877,579 @@
       <c r="G9" s="1" t="s">
         <v>25</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91C1ECC-68D8-0B44-9BF1-1D639FC19E13}">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+      <c r="G11" s="9">
+        <v>1</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9">
+        <v>1</v>
+      </c>
+      <c r="F19" s="9">
+        <v>1</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="9">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1</v>
+      </c>
+      <c r="E21" s="9">
+        <v>1</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Pristiamantis_acatallelus.xlsx
+++ b/Pristiamantis_acatallelus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnsov/Desktop/Proyectos de Investigación 2025/Ocupacion_Farallones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70AD3D0E-744E-4642-9017-BC3F24B2430A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21A0B6D-3816-5B4C-A9DE-B179ACC9173F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16860" yWindow="660" windowWidth="16580" windowHeight="18800" firstSheet="3" activeTab="10" xr2:uid="{0E724713-D368-CE48-B177-BB2AF005B536}"/>
+    <workbookView xWindow="140" yWindow="660" windowWidth="16580" windowHeight="18800" firstSheet="3" activeTab="10" xr2:uid="{0E724713-D368-CE48-B177-BB2AF005B536}"/>
   </bookViews>
   <sheets>
     <sheet name="Notacion" sheetId="10" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="40">
   <si>
     <t>T1</t>
   </si>
@@ -888,7 +888,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1144,7 +1144,9 @@
       <c r="B11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="D11" s="9">
         <v>1</v>
       </c>
@@ -1461,7 +1463,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1519,7 +1521,9 @@
       <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -1854,7 +1858,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
